--- a/media/excel_utils/obshi_vizit_excel_Andijon.xlsx
+++ b/media/excel_utils/obshi_vizit_excel_Andijon.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S16" activeCellId="0" sqref="S16"/>
@@ -2583,59 +2583,458 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>2024-02-19 09:11:15</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>Мадина</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="3" t="inlineStr">
         <is>
           <t>+998902040220</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Andijon</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
         <is>
           <t>Андижон шахар болалар шифохонаси</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="3" t="inlineStr">
         <is>
           <t>Гнойный хирургия</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
         <is>
           <t>Зафар ака</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H38" s="3" t="inlineStr">
         <is>
           <t>Хирург</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="I38" s="3" t="inlineStr">
         <is>
           <t>А</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="J38" s="3" t="inlineStr">
         <is>
           <t>+998970607504</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="K38" s="3" t="inlineStr">
         <is>
           <t>Тавамед цепрозон остатка бердим и колган балини беришим керак7500балл</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-13 09:43:12</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Гулмира</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>+998975845533</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>Солиев махкамжон</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="inlineStr">
+        <is>
+          <t>Terapevt</t>
+        </is>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>998993258728</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr">
+        <is>
+          <t>Астарюз тавамед ёзаман деди, акмал фармдан кетади, 10млн бердик.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-13 09:49:47</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Гулмира</t>
+        </is>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>+998975845533</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>Акимхужаев давронака</t>
+        </is>
+      </c>
+      <c r="H40" s="3" t="inlineStr">
+        <is>
+          <t>Det.Nevropatolog</t>
+        </is>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>902536060</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr">
+        <is>
+          <t>стрессон, компанор ишлатаман деди.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-13 09:53:06</t>
+        </is>
+      </c>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Гулмира</t>
+        </is>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>+998975845533</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="inlineStr">
+        <is>
+          <t>Олтинкул</t>
+        </is>
+      </c>
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>Гавхарой</t>
+        </is>
+      </c>
+      <c r="H41" s="3" t="inlineStr">
+        <is>
+          <t>Dermatolog</t>
+        </is>
+      </c>
+      <c r="I41" s="3" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J41" s="3" t="inlineStr">
+        <is>
+          <t>979946662</t>
+        </is>
+      </c>
+      <c r="K41" s="3" t="inlineStr">
+        <is>
+          <t>ливомед, Энтрод ишлатади</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-27 12:38:33</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Мадинахон</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>+998907551198</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>Пойтуг</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="inlineStr">
+        <is>
+          <t>раддом</t>
+        </is>
+      </c>
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>Абдуллаёва нилуфар</t>
+        </is>
+      </c>
+      <c r="H42" s="3" t="inlineStr">
+        <is>
+          <t>Ginekolog</t>
+        </is>
+      </c>
+      <c r="I42" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J42" s="3" t="inlineStr">
+        <is>
+          <t>907551198</t>
+        </is>
+      </c>
+      <c r="K42" s="3" t="inlineStr">
+        <is>
+          <t>кирдим шарномаси борлиги учун кутишимни айтди</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-27 12:41:31</t>
+        </is>
+      </c>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>KOSIMOVA NILUFAR</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>+998905406320</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>izboskan tuman</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="inlineStr">
+        <is>
+          <t>ttb izboskan</t>
+        </is>
+      </c>
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>Abdullaeva GULJAHON</t>
+        </is>
+      </c>
+      <c r="H43" s="3" t="inlineStr">
+        <is>
+          <t>Kojvenerolog</t>
+        </is>
+      </c>
+      <c r="I43" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J43" s="3" t="inlineStr">
+        <is>
+          <t>91 540 6234</t>
+        </is>
+      </c>
+      <c r="K43" s="3" t="inlineStr">
+        <is>
+          <t>intrizolni yozaman dedi</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>2024-04-27 12:45:33</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Мадинахон</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>+998907551198</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>Андижон туманида</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>паликилиника</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>ахунова мамура</t>
+        </is>
+      </c>
+      <c r="H44" s="3" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I44" s="3" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J44" s="3" t="inlineStr">
+        <is>
+          <t>907551197</t>
+        </is>
+      </c>
+      <c r="K44" s="3" t="inlineStr">
+        <is>
+          <t>договор тузилди астарюс га</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-04-27 12:47:21</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Мадинахон</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>+998907551198</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Andijon</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Андижон туманида</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>паликилиника</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>охунома мамурахон</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Nevropotolog</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>907551198</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>астарюс йозяпти</t>
         </is>
       </c>
     </row>
